--- a/templates/training-template.xlsx
+++ b/templates/training-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\electron-hris\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FF8886-278E-4C8A-8962-DEB23E8A4C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDA5927-5F7A-478E-8C23-4CAAF0290344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5355" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>${title}</t>
   </si>
@@ -43,19 +43,59 @@
   </si>
   <si>
     <t>${table:participants.name}</t>
+  </si>
+  <si>
+    <t>San Jose National High School</t>
+  </si>
+  <si>
+    <t>San Jose, Occidental Mindoro</t>
+  </si>
+  <si>
+    <t>Repuplic of the Philippines</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>Hours:</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>Conducted By:</t>
+  </si>
+  <si>
+    <t>Participants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,45 +402,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>